--- a/data/trans_orig/P62AS1_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1_2015-Estudios-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,73%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,8%</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,22%</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>43,88%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>68,58%</t>
+          <t>69,11%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,63%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,85%</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>70,32%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>79,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>51,33%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>67,27%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>17,71%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>13,93%</t>
         </is>
       </c>
     </row>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,92%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75,39%</t>
+          <t>74,11%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>53,94%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>80,21%</t>
+          <t>80,39%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>69,95%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>84,88%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,8%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>17,98%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>80,65%</t>
+          <t>81,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>62,9%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>67,59%</t>
+          <t>67,7%</t>
         </is>
       </c>
     </row>
